--- a/branches/HUFS/Documents/ScreenDesign/Copy of phieu thong ke kho va dieu chinh kho.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/Copy of phieu thong ke kho va dieu chinh kho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView minimized="1" xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="phieu thong ke" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t xml:space="preserve">phiếu thống kê kho </t>
   </si>
@@ -452,9 +452,6 @@
     <t>Trạng Thái</t>
   </si>
   <si>
-    <t>trạng thái</t>
-  </si>
-  <si>
     <t>Mở</t>
   </si>
   <si>
@@ -467,12 +464,6 @@
     <t>Ngày tạo phiếu</t>
   </si>
   <si>
-    <t>Số lượng Chênh lệch</t>
-  </si>
-  <si>
-    <t>Loại Chênh lệch</t>
-  </si>
-  <si>
     <t>Hạn Dùng</t>
   </si>
   <si>
@@ -551,9 +542,6 @@
     <t>Ngay va gio</t>
   </si>
   <si>
-    <t>+/-/=</t>
-  </si>
-  <si>
     <t>Editable 8</t>
   </si>
   <si>
@@ -588,6 +576,21 @@
   </si>
   <si>
     <t>Khi chot ton xong thi enable = false tat ca button</t>
+  </si>
+  <si>
+    <t>Tên thuốc</t>
+  </si>
+  <si>
+    <t>Thuốc BH</t>
+  </si>
+  <si>
+    <t>Số lượng chênh lệch</t>
+  </si>
+  <si>
+    <t>Loại chênh lệch</t>
+  </si>
+  <si>
+    <t>+/-</t>
   </si>
 </sst>
 </file>
@@ -701,6 +704,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -710,11 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1025,7 @@
   <dimension ref="C1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,16 +1046,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
@@ -1085,10 +1088,10 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
@@ -1097,7 +1100,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
@@ -1108,15 +1111,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
@@ -1137,22 +1140,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1176,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1428,7 +1431,7 @@
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,46 +1451,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1496,13 +1499,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1510,27 +1513,27 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1539,43 +1542,43 @@
         <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I9" s="13" t="s">
-        <v>81</v>
+      <c r="I9" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -1583,19 +1586,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>11</v>
@@ -1607,10 +1610,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1625,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>70</v>
+      <c r="N12" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1805,42 +1808,42 @@
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1869,30 +1872,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -2052,14 +2055,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
